--- a/21.04.20-Sequential_Pattern_option_merge/新建 Microsoft Excel 工作表.xlsx
+++ b/21.04.20-Sequential_Pattern_option_merge/新建 Microsoft Excel 工作表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,266 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="77">
+  <si>
+    <t>correct</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>length</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>support</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>incorrect</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>length</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>support</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Statement; Diagram</t>
+  </si>
+  <si>
+    <t>Option; Diagram</t>
+  </si>
+  <si>
+    <t>Diagram; Statement</t>
+  </si>
+  <si>
+    <t>Statement; Option</t>
+  </si>
+  <si>
+    <t>Option; Statement</t>
+  </si>
+  <si>
+    <t>Diagram; Option</t>
+  </si>
+  <si>
+    <t>Option; Statement; Diagram</t>
+  </si>
+  <si>
+    <t>Statement; Diagram; Option</t>
+  </si>
+  <si>
+    <t>Diagram; Statement; Option</t>
+  </si>
+  <si>
+    <t>Statement; Option; Diagram</t>
+  </si>
+  <si>
+    <t>Diagram; Option; Statement</t>
+  </si>
+  <si>
+    <t>Option; Diagram; Statement</t>
+  </si>
+  <si>
+    <t>Statement; Time; Diagram</t>
+  </si>
+  <si>
+    <t>Statement; Diagram; Time; Option</t>
+  </si>
+  <si>
+    <t>Diagram; Time; Option</t>
+  </si>
+  <si>
+    <t>不连续2-5 length(61)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Statement; Diagram; Time</t>
+  </si>
+  <si>
+    <t>Statement; Diagram; Option; Time</t>
+  </si>
+  <si>
+    <t>Diagram; Statement; Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> length(59)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Statement-&gt;Diagram; Diagram-&gt;Statement</t>
+  </si>
+  <si>
+    <t>Diagram-&gt;Statement; Statement-&gt;Diagram</t>
+  </si>
+  <si>
+    <t>Diagram-&gt;Statement; Statement-&gt;Diagram-&gt;Statement</t>
+  </si>
+  <si>
+    <t>Statement-&gt;Diagram; Statement-&gt;Diagram-&gt;Statement</t>
+  </si>
+  <si>
+    <t>Diagram-&gt;Statement; Diagram-&gt;Statement-&gt;Diagram</t>
+  </si>
+  <si>
+    <t>Statement-&gt;Diagram; Diagram-&gt;Statement-&gt;Diagram</t>
+  </si>
+  <si>
+    <t>Diagram-&gt;Statement; Statement-&gt;Diagram; Statement-&gt;Diagram-&gt;Statement</t>
+  </si>
+  <si>
+    <t>Statement-&gt;Diagram; Diagram-&gt;Statement; Statement-&gt;Diagram-&gt;Statement</t>
+  </si>
+  <si>
+    <t>Diagram-&gt;Statement; Statement-&gt;Diagram; Diagram-&gt;Statement-&gt;Diagram</t>
+  </si>
+  <si>
+    <t>Statement-&gt;Diagram; Diagram-&gt;Statement; Diagram-&gt;Statement-&gt;Diagram</t>
+  </si>
+  <si>
+    <t>Diagram-&gt;Statement; Diagram-&gt;Statement-&gt;Diagram; Statement-&gt;Diagram-&gt;Statement</t>
+  </si>
+  <si>
+    <t>Option-&gt;Statement; Statement-&gt;Diagram</t>
+  </si>
+  <si>
+    <t>Diagram-&gt;Statement; Statement-&gt;Diagram-&gt;Statement; Diagram-&gt;Statement-&gt;Diagram</t>
+  </si>
+  <si>
+    <t>Statement-&gt;Diagram; Diagram-&gt;Statement-&gt;Diagram; Statement-&gt;Diagram-&gt;Statement</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> length(112341)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Statement-&gt;Diagram; Statement-&gt;Diagram-&gt;Statement; Diagram-&gt;Statement-&gt;Diagram</t>
+  </si>
+  <si>
+    <t>Option-&gt;Statement; Statement-&gt;Option</t>
+  </si>
+  <si>
+    <t>连续2-5 length(173)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Statement-&gt;Diagram</t>
+  </si>
+  <si>
+    <t>Diagram-&gt;Statement</t>
+  </si>
+  <si>
+    <t>Statement-&gt;Diagram-&gt;Statement</t>
+  </si>
+  <si>
+    <t>Diagram-&gt;Statement-&gt;Diagram</t>
+  </si>
+  <si>
+    <t>Diagram-&gt;Statement-&gt;Diagram-&gt;Statement</t>
+  </si>
+  <si>
+    <t>Statement-&gt;Diagram-&gt;Statement-&gt;Diagram</t>
+  </si>
+  <si>
+    <t>Option-&gt;Statement</t>
+  </si>
+  <si>
+    <t>Statement-&gt;Diagram-&gt;Statement-&gt;Diagram-&gt;Statement</t>
+  </si>
+  <si>
+    <t>Statement-&gt;Option</t>
+  </si>
+  <si>
+    <t>Diagram-&gt;Statement-&gt;Diagram-&gt;Statement-&gt;Diagram</t>
+  </si>
+  <si>
+    <t>Statement-&gt;Option-&gt;Statement</t>
+  </si>
+  <si>
+    <t>Option-&gt;Statement-&gt;Option</t>
+  </si>
+  <si>
+    <t>Option-&gt;Statement-&gt;Diagram</t>
+  </si>
+  <si>
+    <t>Statement-&gt;Option-&gt;Statement-&gt;Option</t>
+  </si>
+  <si>
+    <t>Option-&gt;Diagram</t>
+  </si>
+  <si>
+    <t>Option-&gt;Statement-&gt;Option-&gt;Diagram</t>
+  </si>
+  <si>
+    <t>Option-&gt;Statement-&gt;Diagram-&gt;Statement</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> length(82)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diagram; Statement; Option</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Statement-&gt;Diagram; Statement-&gt;Option</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diagram-&gt;Statement; Statement-&gt;Option</t>
+  </si>
+  <si>
+    <t>Statement-&gt;Option; Option-&gt;Statement</t>
+  </si>
+  <si>
+    <t>Statement-&gt;Diagram; Option-&gt;Statement</t>
+  </si>
+  <si>
+    <t>Diagram-&gt;Statement; Statement-&gt;Diagram; Diagram-&gt;Statement-&gt;Diagram; Statement-&gt;Diagram-&gt;Statement</t>
+  </si>
+  <si>
+    <t>Statement-&gt;Diagram; Diagram-&gt;Statement; Statement-&gt;Diagram-&gt;Statement; Diagram-&gt;Statement-&gt;Diagram</t>
+  </si>
+  <si>
+    <t>Diagram-&gt;Statement; Statement-&gt;Diagram; Statement-&gt;Diagram-&gt;Statement; Diagram-&gt;Statement-&gt;Diagram</t>
+  </si>
+  <si>
+    <t>不连续内连续2-4 length(363377)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Statement-&gt;Diagram; Diagram-&gt;Statement; Diagram-&gt;Statement-&gt;Diagram; Statement-&gt;Diagram-&gt;Statement</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Option-&gt;Statement</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>都是Diagram和Statement的循环 用红色，粉色系标出
+错误的TOP3和5，都是从选项到题干</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Option-&gt;Statement; Statement-&gt;Diagram</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>除了Diagram和Statement的循环，粉色的Option-&gt;Statement在incorrect出现的比较靠前</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>top8-15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,13 +285,126 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0066"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,14 +419,53 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF99CC"/>
+      <color rgb="FFFF0066"/>
+      <color rgb="FFFF99FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -69,7 +478,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -114,7 +523,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +558,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -331,12 +740,1123 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="107.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="107.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="55.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="55.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="3"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>7.5314519694096624</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>1.2265188609551529</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>15.598953031534119</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>2.7732039973881881</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <v>6.5237666521827187</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+      <c r="R3">
+        <v>1.653823049484838</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>5.5122310127594654</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>1.134550823152648</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>15.456244093039439</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>2.736742146529795</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>5.9023352681753813</v>
+      </c>
+      <c r="P4" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q4">
+        <v>2</v>
+      </c>
+      <c r="R4">
+        <v>1.301108630562922</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>5.2012612405511591</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>1.0868545331855539</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>13.455448831873509</v>
+      </c>
+      <c r="J5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>2.450097817006077</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <v>5.6337364537292451</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q5">
+        <v>2</v>
+      </c>
+      <c r="R5">
+        <v>1.275406402339478</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>4.7976739668374808</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1.009553269824462</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>13.41035250211095</v>
+      </c>
+      <c r="J6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>2.409036225776354</v>
+      </c>
+      <c r="M6" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="N6">
+        <v>3</v>
+      </c>
+      <c r="O6">
+        <v>4.6947698557108044</v>
+      </c>
+      <c r="P6" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q6">
+        <v>3</v>
+      </c>
+      <c r="R6">
+        <v>1.0142753369930919</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>4.4994307601956178</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.97737505854043383</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>12.76027277376793</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>2.2844672279884848</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="N7">
+        <v>4</v>
+      </c>
+      <c r="O7">
+        <v>4.5756641148711363</v>
+      </c>
+      <c r="P7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q7">
+        <v>3</v>
+      </c>
+      <c r="R7">
+        <v>0.98766264111849444</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>4.2324857132723022</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.79302927302655224</v>
+      </c>
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>12.52091782860699</v>
+      </c>
+      <c r="J8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>2.2230501000464291</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="N8">
+        <v>4</v>
+      </c>
+      <c r="O8">
+        <v>4.1809418336925974</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q8">
+        <v>4</v>
+      </c>
+      <c r="R8">
+        <v>0.90327340561872271</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>3.8817814976197238</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>0.64817135899410028</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>12.09716090513748</v>
+      </c>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>2.2021232734568348</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="O9">
+        <v>4.1468617950418203</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q9">
+        <v>3</v>
+      </c>
+      <c r="R9">
+        <v>0.83889067219053826</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>0.56905862361798087</v>
+      </c>
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>11.96321177974513</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>2.1828649345461382</v>
+      </c>
+      <c r="M10" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="N10">
+        <v>5</v>
+      </c>
+      <c r="O10">
+        <v>4.1438816895033828</v>
+      </c>
+      <c r="P10" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q10">
+        <v>5</v>
+      </c>
+      <c r="R10">
+        <v>0.74937521218596748</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>11.711590431111221</v>
+      </c>
+      <c r="J11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>2.164589397309252</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
+      </c>
+      <c r="O11">
+        <v>3.8958595762422461</v>
+      </c>
+      <c r="P11" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q11">
+        <v>2</v>
+      </c>
+      <c r="R11">
+        <v>0.70147797187146643</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>11.59039899144933</v>
+      </c>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>2.0650261272680539</v>
+      </c>
+      <c r="M12" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="N12">
+        <v>5</v>
+      </c>
+      <c r="O12">
+        <v>3.6992715536447731</v>
+      </c>
+      <c r="P12" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q12">
+        <v>5</v>
+      </c>
+      <c r="R12">
+        <v>0.63470522758103298</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <v>10.105693427828459</v>
+      </c>
+      <c r="J13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>2.0176049615355982</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G14" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>9.688385974894965</v>
+      </c>
+      <c r="J14" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1.7985934590423589</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G15" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>9.630678036971057</v>
+      </c>
+      <c r="J15" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1.7968111513107381</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>9.5953421364018183</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1.7929087967720041</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>9.5808694254600617</v>
+      </c>
+      <c r="J17" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1.7685742122104959</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18">
+        <v>9.5443987489443138</v>
+      </c>
+      <c r="J18" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1.7548750427655571</v>
+      </c>
+      <c r="M18" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="N18">
+        <v>3</v>
+      </c>
+      <c r="O18">
+        <v>2.7976001550100671</v>
+      </c>
+      <c r="P18" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q18">
+        <v>4</v>
+      </c>
+      <c r="R18">
+        <v>0.60935141568119877</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G19" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <v>9.5050994266297533</v>
+      </c>
+      <c r="J19" t="s">
+        <v>71</v>
+      </c>
+      <c r="K19">
+        <v>4</v>
+      </c>
+      <c r="L19">
+        <v>1.724394880213123</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="N19">
+        <v>3</v>
+      </c>
+      <c r="O19">
+        <v>2.255860707550172</v>
+      </c>
+      <c r="P19" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q19">
+        <v>3</v>
+      </c>
+      <c r="R19">
+        <v>0.44781009244808861</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G20" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>9.3105750704487473</v>
+      </c>
+      <c r="J20" t="s">
+        <v>68</v>
+      </c>
+      <c r="K20">
+        <v>4</v>
+      </c>
+      <c r="L20">
+        <v>1.708060486081012</v>
+      </c>
+      <c r="M20" t="s">
+        <v>56</v>
+      </c>
+      <c r="N20">
+        <v>3</v>
+      </c>
+      <c r="O20">
+        <v>2.0333287226959591</v>
+      </c>
+      <c r="P20" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q20">
+        <v>3</v>
+      </c>
+      <c r="R20">
+        <v>0.42327667737662689</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G21" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>9.3097315727089729</v>
+      </c>
+      <c r="J21" t="s">
+        <v>67</v>
+      </c>
+      <c r="K21">
+        <v>4</v>
+      </c>
+      <c r="L21">
+        <v>1.68448725865014</v>
+      </c>
+      <c r="M21" t="s">
+        <v>57</v>
+      </c>
+      <c r="N21">
+        <v>4</v>
+      </c>
+      <c r="O21">
+        <v>1.9987806614164729</v>
+      </c>
+      <c r="P21" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q21">
+        <v>4</v>
+      </c>
+      <c r="R21">
+        <v>0.4061032863849765</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22">
+        <v>4</v>
+      </c>
+      <c r="I22">
+        <v>9.2204030830854204</v>
+      </c>
+      <c r="J22" t="s">
+        <v>69</v>
+      </c>
+      <c r="K22">
+        <v>4</v>
+      </c>
+      <c r="L22">
+        <v>1.6693827357278901</v>
+      </c>
+      <c r="M22" t="s">
+        <v>58</v>
+      </c>
+      <c r="N22">
+        <v>2</v>
+      </c>
+      <c r="O22">
+        <v>1.6015021534025069</v>
+      </c>
+      <c r="P22" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q22">
+        <v>4</v>
+      </c>
+      <c r="R22">
+        <v>0.30900981144959261</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M25" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>76</v>
+      </c>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>3.1251808845311619</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>2.374674850575353</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>0.4712020687950621</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>2.2688724547563082</v>
+      </c>
+      <c r="D29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>0.42440869767004707</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>2.180308780137473</v>
+      </c>
+      <c r="D30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>0.30149407832988723</v>
+      </c>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>2.084185403901933</v>
+      </c>
+      <c r="D31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>0.28499495367090982</v>
+      </c>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>0.52030982208095422</v>
+      </c>
+      <c r="D32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>6.8525830751130334E-2</v>
+      </c>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>0.49900352322617791</v>
+      </c>
+      <c r="D33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33">
+        <v>4</v>
+      </c>
+      <c r="F33">
+        <v>6.5804419042309034E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>0.48326590084984661</v>
+      </c>
+      <c r="D34" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>6.0943575903441342E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="M25:P27"/>
+    <mergeCell ref="G29:J32"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>